--- a/DOWNLOADS/EDITAIS/U_180216_E_900772025_07-10-2025_10h30m/U_180216_E_900772025_07-10-2025_10h30m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_180216_E_900772025_07-10-2025_10h30m/U_180216_E_900772025_07-10-2025_10h30m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="114">
   <si>
     <t>Nº</t>
   </si>
@@ -245,6 +245,108 @@
   </si>
   <si>
     <t>Depurador/Exaustor Ar Depurador/Exaustor Ar Aplicação: Residencial, Quantidade Bocas: 4UN, Capacidade Sucção: 250M3/H, Potência: 180WATT, Voltagem: 127/220V</t>
+  </si>
+  <si>
+    <t>Cama box solteiro</t>
+  </si>
+  <si>
+    <t>Colchão</t>
+  </si>
+  <si>
+    <t>Banqueta de madeira baixa</t>
+  </si>
+  <si>
+    <t>Armário de arquivo em</t>
+  </si>
+  <si>
+    <t>Armário Roupeiro de Aço 6 portas</t>
+  </si>
+  <si>
+    <t>Roupeiro em aço insalubre</t>
+  </si>
+  <si>
+    <t>Armário Roupeiro de Aço 12 portas</t>
+  </si>
+  <si>
+    <t>Quadro de avisos</t>
+  </si>
+  <si>
+    <t>Estantes</t>
+  </si>
+  <si>
+    <t>Bancada de oficina com gavetas/prateleiras</t>
+  </si>
+  <si>
+    <t>Armário corta fogo vermelha</t>
+  </si>
+  <si>
+    <t>Armário corta fogo azul</t>
+  </si>
+  <si>
+    <t>Armário corta fogo azul 1m</t>
+  </si>
+  <si>
+    <t>Maca divã</t>
+  </si>
+  <si>
+    <t>Mesa ginecológica</t>
+  </si>
+  <si>
+    <t>Escada hospitalar</t>
+  </si>
+  <si>
+    <t>Cadeira de rodas</t>
+  </si>
+  <si>
+    <t>Máquina lava roupa</t>
+  </si>
+  <si>
+    <t>Fogão</t>
+  </si>
+  <si>
+    <t>Micro-ondas</t>
+  </si>
+  <si>
+    <t>Geladeira</t>
+  </si>
+  <si>
+    <t>Exaustor</t>
+  </si>
+  <si>
+    <t>Frigobar</t>
+  </si>
+  <si>
+    <t>Projetor de imagens</t>
+  </si>
+  <si>
+    <t>Tela de projeção</t>
+  </si>
+  <si>
+    <t>Televisor smart 65”</t>
+  </si>
+  <si>
+    <t>Televisor smart 43”</t>
+  </si>
+  <si>
+    <t>Telefone fixo ramal</t>
+  </si>
+  <si>
+    <t>Telefone sem fio ramal</t>
+  </si>
+  <si>
+    <t>Fone de ouvido HeadSet</t>
+  </si>
+  <si>
+    <t>Monitor 24”</t>
+  </si>
+  <si>
+    <t>Centrífuga tubos</t>
+  </si>
+  <si>
+    <t>Vórtex</t>
+  </si>
+  <si>
+    <t>Carro de transporte manual plataforma</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -654,7 +756,7 @@
         <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -663,13 +765,13 @@
         <v>3955.64</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -680,7 +782,7 @@
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -689,13 +791,13 @@
         <v>4336.66</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -706,7 +808,7 @@
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -715,13 +817,13 @@
         <v>1010.12</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -732,7 +834,7 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -741,16 +843,16 @@
         <v>1066.743333333333</v>
       </c>
       <c r="F5">
-        <v>9600.689999999999</v>
+        <v>9600.690000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -761,7 +863,7 @@
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -770,13 +872,13 @@
         <v>8026.4</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -787,7 +889,7 @@
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -796,13 +898,13 @@
         <v>11459.13</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -813,7 +915,7 @@
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -822,13 +924,13 @@
         <v>4602.22</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -839,7 +941,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -848,13 +950,13 @@
         <v>3628.76</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -865,7 +967,7 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -874,13 +976,13 @@
         <v>15793.87</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -891,7 +993,7 @@
         <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -900,13 +1002,13 @@
         <v>8835.389999999999</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -917,7 +1019,7 @@
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -929,13 +1031,13 @@
         <v>9207.379999999999</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -946,7 +1048,7 @@
         <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -958,13 +1060,13 @@
         <v>9126</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -975,7 +1077,7 @@
         <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -984,13 +1086,13 @@
         <v>14853.37</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1001,7 +1103,7 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1010,13 +1112,13 @@
         <v>2373.75</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1027,7 +1129,7 @@
         <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1039,13 +1141,13 @@
         <v>2213.38</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I16" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1056,7 +1158,7 @@
         <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1068,13 +1170,13 @@
         <v>1029.55</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1085,7 +1187,7 @@
         <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1097,13 +1199,13 @@
         <v>1713.28</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1114,7 +1216,7 @@
         <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1123,13 +1225,13 @@
         <v>3972</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I19" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1140,7 +1242,7 @@
         <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1152,13 +1254,13 @@
         <v>1689.31</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1169,7 +1271,7 @@
         <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1181,13 +1283,13 @@
         <v>865.77</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1198,7 +1300,7 @@
         <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D22">
         <v>8</v>
@@ -1207,13 +1309,13 @@
         <v>25637.95</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I22" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1224,7 +1326,7 @@
         <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1233,13 +1335,13 @@
         <v>3151.86</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H23" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I23" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1250,7 +1352,7 @@
         <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1262,13 +1364,13 @@
         <v>14928.18</v>
       </c>
       <c r="G24" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H24" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I24" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1279,7 +1381,7 @@
         <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1291,13 +1393,13 @@
         <v>1870.58</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H25" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I25" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1308,7 +1410,7 @@
         <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1320,13 +1422,13 @@
         <v>4622.6</v>
       </c>
       <c r="G26" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H26" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I26" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1337,7 +1439,7 @@
         <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1349,13 +1451,13 @@
         <v>6733.26</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H27" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I27" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1366,7 +1468,7 @@
         <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D28">
         <v>30</v>
@@ -1375,13 +1477,13 @@
         <v>6737.4</v>
       </c>
       <c r="G28" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H28" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I28" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1392,7 +1494,7 @@
         <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="D29">
         <v>18</v>
@@ -1401,13 +1503,13 @@
         <v>4248.66</v>
       </c>
       <c r="G29" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H29" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I29" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1418,7 +1520,7 @@
         <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="D30">
         <v>10</v>
@@ -1427,13 +1529,13 @@
         <v>2649.03</v>
       </c>
       <c r="G30" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H30" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I30" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1444,7 +1546,7 @@
         <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -1453,13 +1555,13 @@
         <v>8881.58</v>
       </c>
       <c r="G31" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I31" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1470,7 +1572,7 @@
         <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1482,13 +1584,13 @@
         <v>2267.38</v>
       </c>
       <c r="G32" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H32" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I32" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1499,7 +1601,7 @@
         <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D33">
         <v>6</v>
@@ -1508,13 +1610,13 @@
         <v>3453.22</v>
       </c>
       <c r="G33" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H33" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I33" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1525,7 +1627,7 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1537,13 +1639,13 @@
         <v>2370.88</v>
       </c>
       <c r="G34" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H34" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I34" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1554,7 +1656,7 @@
         <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1566,13 +1668,13 @@
         <v>545.9299999999999</v>
       </c>
       <c r="G35" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I35" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
